--- a/instrumentace_template.xlsx
+++ b/instrumentace_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Skola - magistr\druhák\MPC-AUP\projekt\project_AUP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0548158A-17F0-47CB-BE24-DD8DE7A0C991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A18F7E86-9585-42FB-8063-17A3CC3E699E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5292" yWindow="0" windowWidth="17820" windowHeight="12360" xr2:uid="{3DF038C4-59DD-4D8C-89B0-4D36076B5952}"/>
+    <workbookView xWindow="7536" yWindow="0" windowWidth="18720" windowHeight="12360" xr2:uid="{3DF038C4-59DD-4D8C-89B0-4D36076B5952}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -35,6 +35,56 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+  <si>
+    <t>Název</t>
+  </si>
+  <si>
+    <t>Snímače</t>
+  </si>
+  <si>
+    <t>Rozsah</t>
+  </si>
+  <si>
+    <t>Citlivost</t>
+  </si>
+  <si>
+    <t>Rozlišení</t>
+  </si>
+  <si>
+    <t>Provozní podmínky</t>
+  </si>
+  <si>
+    <t>Chyba měření</t>
+  </si>
+  <si>
+    <t>Mechanické vlastnosti</t>
+  </si>
+  <si>
+    <t>Rozhraní</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>Odůvodnění</t>
+  </si>
+  <si>
+    <t>Porovnání parametrů</t>
+  </si>
+  <si>
+    <t>Provozní podminky</t>
+  </si>
+  <si>
+    <t>Porovnání</t>
+  </si>
+  <si>
+    <t>Označení</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
@@ -55,7 +105,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -63,12 +113,234 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="1">
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="thin">
+        <color auto="1"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -383,14 +655,298 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91D7AA1C-20CF-4490-A041-11CADF853C8E}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:M24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.88671875" customWidth="1"/>
+    <col min="9" max="9" width="11.21875" customWidth="1"/>
+    <col min="10" max="10" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.109375" customWidth="1"/>
+    <col min="12" max="12" width="11.33203125" customWidth="1"/>
+    <col min="13" max="13" width="9.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="16" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="17" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="12"/>
+      <c r="B17" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="M17" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="9">
+        <v>1</v>
+      </c>
+      <c r="B18" s="13"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="10">
+        <v>2</v>
+      </c>
+      <c r="B19" s="16"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="10">
+        <v>3</v>
+      </c>
+      <c r="B20" s="16"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="10">
+        <v>4</v>
+      </c>
+      <c r="B21" s="16"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="10">
+        <v>5</v>
+      </c>
+      <c r="B22" s="16"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" s="10">
+        <v>6</v>
+      </c>
+      <c r="B23" s="16"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/instrumentace_template.xlsx
+++ b/instrumentace_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Skola - magistr\druhák\MPC-AUP\projekt\project_AUP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A18F7E86-9585-42FB-8063-17A3CC3E699E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B2A534-D795-418E-9DCC-3EF6D5FA21B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7536" yWindow="0" windowWidth="18720" windowHeight="12360" xr2:uid="{3DF038C4-59DD-4D8C-89B0-4D36076B5952}"/>
+    <workbookView xWindow="5808" yWindow="384" windowWidth="18720" windowHeight="11628" xr2:uid="{3DF038C4-59DD-4D8C-89B0-4D36076B5952}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="26">
   <si>
     <t>Název</t>
   </si>
@@ -81,16 +81,78 @@
   </si>
   <si>
     <t>Označení</t>
+  </si>
+  <si>
+    <t>snímače</t>
+  </si>
+  <si>
+    <t>ventil</t>
+  </si>
+  <si>
+    <t>Maximální průtok</t>
+  </si>
+  <si>
+    <t>Doba přestavení</t>
+  </si>
+  <si>
+    <t>Způsob otevíraní</t>
+  </si>
+  <si>
+    <t>Motor</t>
+  </si>
+  <si>
+    <t>Kroutící moment</t>
+  </si>
+  <si>
+    <t>Jmenovitý proud</t>
+  </si>
+  <si>
+    <t>Jmenovité napětí</t>
+  </si>
+  <si>
+    <t>Jmenovité otáčky</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Poznámka</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Provozní podmínky (mezní teploty, typ média, typ použití atd.)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -105,7 +167,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -287,24 +349,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -338,8 +400,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -655,21 +729,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91D7AA1C-20CF-4490-A041-11CADF853C8E}">
-  <dimension ref="A2:M24"/>
+  <dimension ref="A2:O43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.88671875" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" customWidth="1"/>
+    <col min="7" max="8" width="11.33203125" customWidth="1"/>
     <col min="9" max="9" width="11.21875" customWidth="1"/>
-    <col min="10" max="10" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.109375" customWidth="1"/>
+    <col min="10" max="10" width="10.44140625" customWidth="1"/>
+    <col min="11" max="11" width="11.21875" customWidth="1"/>
     <col min="12" max="12" width="11.33203125" customWidth="1"/>
     <col min="13" max="13" width="9.88671875" customWidth="1"/>
+    <col min="14" max="14" width="12.6640625" customWidth="1"/>
+    <col min="15" max="15" width="10.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -681,270 +758,544 @@
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
     </row>
     <row r="13" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="16" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="17" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="12"/>
-      <c r="B17" s="8" t="s">
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+    </row>
+    <row r="16" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C17" s="9"/>
+      <c r="D17" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="E17" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="F17" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="G17" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="H17" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="I17" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="J17" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I17" s="8" t="s">
+      <c r="K17" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J17" s="8" t="s">
+      <c r="L17" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K17" s="8" t="s">
+      <c r="M17" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L17" s="8" t="s">
+      <c r="N17" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="M17" s="18" t="s">
+      <c r="O17" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="9">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C18" s="6">
         <v>1</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="10">
+      <c r="D18" s="10"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C19" s="7">
         <v>2</v>
       </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="10">
+      <c r="D19" s="13"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C20" s="7">
         <v>3</v>
       </c>
-      <c r="B20" s="16"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="10">
+      <c r="D20" s="13"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C21" s="7">
         <v>4</v>
       </c>
-      <c r="B21" s="16"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="10">
+      <c r="D21" s="13"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C22" s="7">
         <v>5</v>
       </c>
-      <c r="B22" s="16"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="10">
+      <c r="D22" s="13"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C23" s="7">
         <v>6</v>
       </c>
-      <c r="B23" s="16"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+    </row>
+    <row r="26" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C27" s="9"/>
+      <c r="D27" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L27" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M27" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C28" s="6">
+        <v>1</v>
+      </c>
+      <c r="D28" s="10"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="18"/>
+      <c r="O28" s="19"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C29" s="7">
+        <v>2</v>
+      </c>
+      <c r="D29" s="13"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="18"/>
+      <c r="O29" s="19"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C30" s="7">
+        <v>3</v>
+      </c>
+      <c r="D30" s="13"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="18"/>
+      <c r="O30" s="19"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C31" s="7">
+        <v>4</v>
+      </c>
+      <c r="D31" s="13"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="18"/>
+      <c r="O31" s="19"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C32" s="7">
+        <v>5</v>
+      </c>
+      <c r="D32" s="13"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="18"/>
+      <c r="O32" s="19"/>
+    </row>
+    <row r="33" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C33" s="7">
+        <v>6</v>
+      </c>
+      <c r="D33" s="13"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="18"/>
+      <c r="O33" s="19"/>
+    </row>
+    <row r="36" spans="3:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C36" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="3:15" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C37" s="9"/>
+      <c r="D37" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L37" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M37" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C38" s="6">
+        <v>1</v>
+      </c>
+      <c r="D38" s="10"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+    </row>
+    <row r="39" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C39" s="7">
+        <v>2</v>
+      </c>
+      <c r="D39" s="13"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="14"/>
+    </row>
+    <row r="40" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C40" s="7">
+        <v>3</v>
+      </c>
+      <c r="D40" s="13"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="14"/>
+    </row>
+    <row r="41" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C41" s="7">
+        <v>4</v>
+      </c>
+      <c r="D41" s="13"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="14"/>
+    </row>
+    <row r="42" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C42" s="7">
+        <v>5</v>
+      </c>
+      <c r="D42" s="13"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="14"/>
+    </row>
+    <row r="43" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C43" s="7">
+        <v>6</v>
+      </c>
+      <c r="D43" s="13"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="14"/>
+      <c r="L43" s="14"/>
+      <c r="M43" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:F7"/>
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="C12:F12"/>
     <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
